--- a/biology/Médecine/Excès_et_déficit_de_base/Excès_et_déficit_de_base.xlsx
+++ b/biology/Médecine/Excès_et_déficit_de_base/Excès_et_déficit_de_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_et_d%C3%A9ficit_de_base</t>
+          <t>Excès_et_déficit_de_base</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En physiologie, l'excès de base et le déficit de base désignent respectivement un excès ou un déficit de la quantité de base présente dans le sang. La valeur est généralement indiquée comme une concentration en unités de mÉq/L (mmol/L), avec un nombre positif indiquant un excès de base et un nombre négatif un déficit. Une plage de référence typique pour l'excès de base est de −2 à +2 mÉq/L.
 La comparaison de l'excès de base avec la plage de référence aide à déterminer si une perturbation acide/base est causée par un problème respiratoire, métabolique ou mixte métabolique/respiratoire. Alors que le dioxyde de carbone définit la composante respiratoire de l'équilibre acido-basique, l'excès de base définit la composante métabolique. En conséquence, la mesure de l'excès de base est définie, sous une pression normalisée de dioxyde de carbone, en retitrant à un pH sanguin normalisé de 7,40.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_et_d%C3%A9ficit_de_base</t>
+          <t>Excès_et_déficit_de_base</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'excès de base est défini comme la quantité d'acide fort qui doit être ajoutée à chaque litre de sang entièrement oxygéné pour ramener le pH à 7,40 à une température de 37 °C et une pression partielle pCO2 de 40 mmHg (5,3 kPa). Un déficit de base (c'est-à-dire un excédent de base négatif) peut être défini de manière correspondante en termes de quantité de base forte qui doit être ajoutée.
-Une distinction supplémentaire peut être faite entre l'excès de base réel et standard : l'excès de base réel est celui présent dans le sang, tandis que l'excès de base standard est la valeur lorsque l'hémoglobine est à 5 g/dl. Ce dernier permet de mieux visualiser l'excès de base de l'ensemble du liquide extracellulaire[1].
+Une distinction supplémentaire peut être faite entre l'excès de base réel et standard : l'excès de base réel est celui présent dans le sang, tandis que l'excès de base standard est la valeur lorsque l'hémoglobine est à 5 g/dl. Ce dernier permet de mieux visualiser l'excès de base de l'ensemble du liquide extracellulaire.
 L'excès (ou le déficit) de base est l'une des nombreuses valeurs généralement rapportées avec l'analyse des gaz du sang artériel dérivée d'autres données mesurées.
 Le terme et le concept d'excès de base ont été introduits pour la première fois par Poul Astrup et Ole Siggaard-Andersen en 1958.
 </t>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_et_d%C3%A9ficit_de_base</t>
+          <t>Excès_et_déficit_de_base</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Estimation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'excès de base peut être estimé à partir de la concentration en bicarbonate ([HCO3−]) et du pH par l'équation[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'excès de base peut être estimé à partir de la concentration en bicarbonate ([HCO3−]) et du pH par l'équation :
         B
         a
         s
@@ -694,7 +710,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Exc%C3%A8s_et_d%C3%A9ficit_de_base</t>
+          <t>Excès_et_déficit_de_base</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -712,7 +728,9 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un excès de base au-delà de la plage de référence indique :
 une alcalose métabolique si trop élevée (supérieure à +2 mÉq/L) ;
